--- a/INTLINE/data/142/STANOR/09189 Final expenditure and gross domestic product by macroeconomic indicator contents and year.xlsx
+++ b/INTLINE/data/142/STANOR/09189 Final expenditure and gross domestic product by macroeconomic indicator contents and year.xlsx
@@ -344,7 +344,7 @@
     <x:t>Current prices (NOK million):</x:t>
   </x:si>
   <x:si>
-    <x:t>20220216 08:00</x:t>
+    <x:t>20220513 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1133,7 +1133,7 @@
         <x:v>1500036</x:v>
       </x:c>
       <x:c r="BB4" s="3" t="n">
-        <x:v>1616947</x:v>
+        <x:v>1616027</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:54">
@@ -1297,7 +1297,7 @@
         <x:v>1421643</x:v>
       </x:c>
       <x:c r="BB5" s="3" t="n">
-        <x:v>1530789</x:v>
+        <x:v>1529839</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:54">
@@ -1461,7 +1461,7 @@
         <x:v>728585</x:v>
       </x:c>
       <x:c r="BB6" s="3" t="n">
-        <x:v>802102</x:v>
+        <x:v>802938</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:54">
@@ -1625,7 +1625,7 @@
         <x:v>680638</x:v>
       </x:c>
       <x:c r="BB7" s="3" t="n">
-        <x:v>717816</x:v>
+        <x:v>716102</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:54">
@@ -1789,7 +1789,7 @@
         <x:v>29547</x:v>
       </x:c>
       <x:c r="BB8" s="3" t="n">
-        <x:v>27499</x:v>
+        <x:v>27427</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:54">
@@ -2117,7 +2117,7 @@
         <x:v>78392</x:v>
       </x:c>
       <x:c r="BB10" s="3" t="n">
-        <x:v>86158</x:v>
+        <x:v>86188</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:54">
@@ -2281,7 +2281,7 @@
         <x:v>905323</x:v>
       </x:c>
       <x:c r="BB11" s="3" t="n">
-        <x:v>965837</x:v>
+        <x:v>968307</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:54">
@@ -2445,7 +2445,7 @@
         <x:v>449794</x:v>
       </x:c>
       <x:c r="BB12" s="3" t="n">
-        <x:v>478058</x:v>
+        <x:v>479833</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:54">
@@ -2609,7 +2609,7 @@
         <x:v>396358</x:v>
       </x:c>
       <x:c r="BB13" s="3" t="n">
-        <x:v>421420</x:v>
+        <x:v>422102</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:54">
@@ -2773,7 +2773,7 @@
         <x:v>53436</x:v>
       </x:c>
       <x:c r="BB14" s="3" t="n">
-        <x:v>56638</x:v>
+        <x:v>57731</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:54">
@@ -2937,7 +2937,7 @@
         <x:v>455529</x:v>
       </x:c>
       <x:c r="BB15" s="3" t="n">
-        <x:v>487779</x:v>
+        <x:v>488474</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:54">
@@ -3101,7 +3101,7 @@
         <x:v>932072</x:v>
       </x:c>
       <x:c r="BB16" s="3" t="n">
-        <x:v>966374</x:v>
+        <x:v>960482</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:54">
@@ -3265,7 +3265,7 @@
         <x:v>181473</x:v>
       </x:c>
       <x:c r="BB17" s="3" t="n">
-        <x:v>178441</x:v>
+        <x:v>178689</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:54">
@@ -3429,7 +3429,7 @@
         <x:v>5944</x:v>
       </x:c>
       <x:c r="BB18" s="3" t="n">
-        <x:v>2322</x:v>
+        <x:v>2323</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:54">
@@ -3593,7 +3593,7 @@
         <x:v>744655</x:v>
       </x:c>
       <x:c r="BB19" s="3" t="n">
-        <x:v>785611</x:v>
+        <x:v>779470</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:54">
@@ -3757,7 +3757,7 @@
         <x:v>527301</x:v>
       </x:c>
       <x:c r="BB20" s="3" t="n">
-        <x:v>564099</x:v>
+        <x:v>559987</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:54">
@@ -3921,7 +3921,7 @@
         <x:v>334536</x:v>
       </x:c>
       <x:c r="BB21" s="3" t="n">
-        <x:v>353464</x:v>
+        <x:v>353455</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:54">
@@ -4085,7 +4085,7 @@
         <x:v>2801</x:v>
       </x:c>
       <x:c r="BB22" s="3" t="n">
-        <x:v>2684</x:v>
+        <x:v>2719</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:54">
@@ -4249,7 +4249,7 @@
         <x:v>202876</x:v>
       </x:c>
       <x:c r="BB23" s="3" t="n">
-        <x:v>221048</x:v>
+        <x:v>221100</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:54">
@@ -4413,7 +4413,7 @@
         <x:v>48824</x:v>
       </x:c>
       <x:c r="BB24" s="3" t="n">
-        <x:v>51460</x:v>
+        <x:v>51669</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:54">
@@ -4577,7 +4577,7 @@
         <x:v>80035</x:v>
       </x:c>
       <x:c r="BB25" s="3" t="n">
-        <x:v>78272</x:v>
+        <x:v>77967</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:54">
@@ -4741,7 +4741,7 @@
         <x:v>192765</x:v>
       </x:c>
       <x:c r="BB26" s="3" t="n">
-        <x:v>210635</x:v>
+        <x:v>206532</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:54">
@@ -4905,7 +4905,7 @@
         <x:v>217354</x:v>
       </x:c>
       <x:c r="BB27" s="3" t="n">
-        <x:v>221512</x:v>
+        <x:v>219483</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:54">
@@ -5069,7 +5069,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="BB28" s="3" t="n">
-        <x:v>296</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:54">
@@ -5233,7 +5233,7 @@
         <x:v>101445</x:v>
       </x:c>
       <x:c r="BB29" s="3" t="n">
-        <x:v>78473</x:v>
+        <x:v>89096</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:54">
@@ -5397,7 +5397,7 @@
         <x:v>1033687</x:v>
       </x:c>
       <x:c r="BB30" s="3" t="n">
-        <x:v>1045143</x:v>
+        <x:v>1049871</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:54">
@@ -5561,7 +5561,7 @@
         <x:v>3439045</x:v>
       </x:c>
       <x:c r="BB31" s="3" t="n">
-        <x:v>3627926</x:v>
+        <x:v>3634205</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:54">
@@ -5725,7 +5725,7 @@
         <x:v>3150013</x:v>
       </x:c>
       <x:c r="BB32" s="3" t="n">
-        <x:v>3368394</x:v>
+        <x:v>3363804</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:54">
@@ -5889,7 +5889,7 @@
         <x:v>1122677</x:v>
       </x:c>
       <x:c r="BB33" s="3" t="n">
-        <x:v>1187349</x:v>
+        <x:v>1187790</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:54">
@@ -6053,7 +6053,7 @@
         <x:v>1099692</x:v>
       </x:c>
       <x:c r="BB34" s="3" t="n">
-        <x:v>1722661</x:v>
+        <x:v>1721878</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:54">
@@ -6709,7 +6709,7 @@
         <x:v>328852</x:v>
       </x:c>
       <x:c r="BB38" s="3" t="n">
-        <x:v>354200</x:v>
+        <x:v>353417</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:54">
@@ -6873,7 +6873,7 @@
         <x:v>4538738</x:v>
       </x:c>
       <x:c r="BB39" s="3" t="n">
-        <x:v>5350587</x:v>
+        <x:v>5356083</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:54">
@@ -7037,7 +7037,7 @@
         <x:v>1128338</x:v>
       </x:c>
       <x:c r="BB40" s="3" t="n">
-        <x:v>1206453</x:v>
+        <x:v>1214201</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:54">
@@ -7693,7 +7693,7 @@
         <x:v>327476</x:v>
       </x:c>
       <x:c r="BB44" s="3" t="n">
-        <x:v>323209</x:v>
+        <x:v>330957</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:54">
@@ -7857,7 +7857,7 @@
         <x:v>3410399</x:v>
       </x:c>
       <x:c r="BB45" s="3" t="n">
-        <x:v>4144134</x:v>
+        <x:v>4141882</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:54">
@@ -8021,7 +8021,7 @@
         <x:v>3042961</x:v>
       </x:c>
       <x:c r="BB46" s="3" t="n">
-        <x:v>3265338</x:v>
+        <x:v>3267395</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:54">
@@ -8185,7 +8185,7 @@
         <x:v>367438</x:v>
       </x:c>
       <x:c r="BB47" s="3" t="n">
-        <x:v>878796</x:v>
+        <x:v>874487</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:54">
@@ -8349,7 +8349,7 @@
         <x:v>2639172</x:v>
       </x:c>
       <x:c r="BB48" s="3" t="n">
-        <x:v>2837652</x:v>
+        <x:v>2838790</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:54">
@@ -8513,7 +8513,7 @@
         <x:v>1945356</x:v>
       </x:c>
       <x:c r="BB49" s="3" t="n">
-        <x:v>2105556</x:v>
+        <x:v>2102566</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:54">
@@ -8677,7 +8677,7 @@
         <x:v>228894</x:v>
       </x:c>
       <x:c r="BB50" s="3" t="n">
-        <x:v>237376</x:v>
+        <x:v>235223</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:54">
@@ -8841,7 +8841,7 @@
         <x:v>328023</x:v>
       </x:c>
       <x:c r="BB51" s="3" t="n">
-        <x:v>408297</x:v>
+        <x:v>408682</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:54">
@@ -9005,7 +9005,7 @@
         <x:v>1388440</x:v>
       </x:c>
       <x:c r="BB52" s="3" t="n">
-        <x:v>1459884</x:v>
+        <x:v>1458661</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:54">
@@ -9169,7 +9169,7 @@
         <x:v>693816</x:v>
       </x:c>
       <x:c r="BB53" s="3" t="n">
-        <x:v>732095</x:v>
+        <x:v>736225</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:54">
@@ -9333,7 +9333,7 @@
         <x:v>403789</x:v>
       </x:c>
       <x:c r="BB54" s="3" t="n">
-        <x:v>427686</x:v>
+        <x:v>428605</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:54">
